--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1909.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1909.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FC1243-893A-4CB7-9275-82162239CC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0CDD4D-3C86-4E36-AEBD-27DDE47EB1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58515" yWindow="915" windowWidth="28830" windowHeight="23010" xr2:uid="{ACC770B4-9B70-4D2E-BEE0-2CAD7D6DD853}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="57840" windowHeight="23520" xr2:uid="{ACC770B4-9B70-4D2E-BEE0-2CAD7D6DD853}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="142">
   <si>
     <t>губ</t>
   </si>
@@ -454,6 +454,15 @@
   <si>
     <t>вызвано отсутствием сведений половой разбивки по Самаркандской и Закаспийской обл.</t>
   </si>
+  <si>
+    <t>v-чж</t>
+  </si>
+  <si>
+    <t>v-чр</t>
+  </si>
+  <si>
+    <t>v-чс</t>
+  </si>
 </sst>
 </file>
 
@@ -519,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -541,6 +550,7 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,13 +865,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94797F7D-BA3C-41D1-A3B8-3FAF5F45543C}">
-  <dimension ref="A1:AC467"/>
+  <dimension ref="A1:AG467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R84" sqref="R84"/>
+      <selection pane="bottomRight" activeCell="AK84" sqref="AK84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -886,9 +896,10 @@
     <col min="26" max="27" width="10.578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.20703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="8.62890625" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="8.83984375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -973,8 +984,17 @@
       <c r="AC1" s="5" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AE1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1065,8 +1085,20 @@
         <f>Z2+AA2-AB2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AE2" s="8">
+        <f>B2-H2-T2</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="8">
+        <f>C2-L2-X2</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="8">
+        <f>D2-P2-AB2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1157,8 +1189,20 @@
         <f t="shared" ref="AC3:AC66" si="5">Z3+AA3-AB3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AE3" s="8">
+        <f t="shared" ref="AE3:AE66" si="6">B3-H3-T3</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="8">
+        <f t="shared" ref="AF3:AF66" si="7">C3-L3-X3</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="8">
+        <f t="shared" ref="AG3:AG66" si="8">D3-P3-AB3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1249,8 +1293,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AE4" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1341,8 +1397,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AE5" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1433,8 +1501,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AE6" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1525,8 +1605,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AE7" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1617,8 +1709,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AE8" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1709,8 +1813,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AE9" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1801,8 +1917,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AE10" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1893,8 +2021,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AE11" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1985,8 +2125,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="AE12" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2077,8 +2229,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AE13" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2169,8 +2333,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="AE14" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2261,8 +2437,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="AE15" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2353,8 +2541,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AE16" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2445,8 +2645,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="AE17" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2537,8 +2749,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="AE18" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2629,8 +2853,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AE19" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2721,8 +2957,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AE20" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2813,8 +3061,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="AE21" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2905,8 +3165,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AE22" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2997,8 +3269,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:29">
+      <c r="AE23" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -3089,8 +3373,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:29">
+      <c r="AE24" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -3181,8 +3477,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:29">
+      <c r="AE25" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -3273,8 +3581,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:29">
+      <c r="AE26" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3365,8 +3685,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:29">
+      <c r="AE27" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -3457,8 +3789,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:29">
+      <c r="AE28" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -3549,8 +3893,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:29">
+      <c r="AE29" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -3641,8 +3997,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:29">
+      <c r="AE30" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -3733,8 +4101,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:29">
+      <c r="AE31" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -3825,8 +4205,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:29">
+      <c r="AE32" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -3917,8 +4309,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:29">
+      <c r="AE33" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -4009,8 +4413,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:29">
+      <c r="AE34" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -4101,8 +4517,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:29">
+      <c r="AE35" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -4193,8 +4621,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:29">
+      <c r="AE36" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -4285,8 +4725,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:29">
+      <c r="AE37" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -4377,8 +4829,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:29">
+      <c r="AE38" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -4469,8 +4933,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:29">
+      <c r="AE39" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -4561,8 +5037,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:29">
+      <c r="AE40" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -4653,8 +5141,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:29">
+      <c r="AE41" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -4745,8 +5245,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:29">
+      <c r="AE42" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -4837,8 +5349,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:29">
+      <c r="AE43" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -4929,8 +5453,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:29">
+      <c r="AE44" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -5021,8 +5557,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:29">
+      <c r="AE45" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -5113,8 +5661,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:29">
+      <c r="AE46" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -5205,8 +5765,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:29">
+      <c r="AE47" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -5297,8 +5869,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:29">
+      <c r="AE48" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF48" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG48" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -5389,8 +5973,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:29">
+      <c r="AE49" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF49" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG49" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -5481,8 +6077,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:29">
+      <c r="AE50" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG50" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -5573,8 +6181,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:29">
+      <c r="AE51" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG51" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -5665,8 +6285,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:29">
+      <c r="AE52" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG52" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -5757,8 +6389,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:29">
+      <c r="AE53" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF53" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -5849,8 +6493,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:29">
+      <c r="AE54" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF54" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG54" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -5941,8 +6597,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:29">
+      <c r="AE55" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF55" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG55" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -6033,8 +6701,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:29">
+      <c r="AE56" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF56" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG56" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -6125,8 +6805,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:29">
+      <c r="AE57" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF57" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG57" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -6217,8 +6909,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:29">
+      <c r="AE58" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF58" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG58" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -6309,8 +7013,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:29">
+      <c r="AE59" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF59" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG59" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -6401,8 +7117,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:29">
+      <c r="AE60" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF60" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG60" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -6493,8 +7221,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:29">
+      <c r="AE61" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF61" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG61" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -6585,8 +7325,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:29">
+      <c r="AE62" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF62" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG62" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -6677,8 +7429,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:29">
+      <c r="AE63" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF63" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG63" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -6769,8 +7533,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:29">
+      <c r="AE64" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF64" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -6861,8 +7637,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:29">
+      <c r="AE65" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF65" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -6953,8 +7741,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:29">
+      <c r="AE66" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF66" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -6977,7 +7777,7 @@
         <v>551231</v>
       </c>
       <c r="I67" s="6">
-        <f t="shared" ref="I67:I109" si="6">F67+G67-H67</f>
+        <f t="shared" ref="I67:I109" si="9">F67+G67-H67</f>
         <v>0</v>
       </c>
       <c r="J67" s="4">
@@ -6990,7 +7790,7 @@
         <v>14557</v>
       </c>
       <c r="M67" s="6">
-        <f t="shared" ref="M67:M109" si="7">J67+K67-L67</f>
+        <f t="shared" ref="M67:M109" si="10">J67+K67-L67</f>
         <v>0</v>
       </c>
       <c r="N67" s="3">
@@ -7003,7 +7803,7 @@
         <v>11358</v>
       </c>
       <c r="Q67" s="6">
-        <f t="shared" ref="Q67:Q109" si="8">N67+O67-P67</f>
+        <f t="shared" ref="Q67:Q109" si="11">N67+O67-P67</f>
         <v>0</v>
       </c>
       <c r="R67" s="3">
@@ -7016,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="6">
-        <f t="shared" ref="U67:U109" si="9">R67+S67-T67</f>
+        <f t="shared" ref="U67:U109" si="12">R67+S67-T67</f>
         <v>0</v>
       </c>
       <c r="V67" s="3">
@@ -7029,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="Y67" s="6">
-        <f t="shared" ref="Y67:Y109" si="10">V67+W67-X67</f>
+        <f t="shared" ref="Y67:Y109" si="13">V67+W67-X67</f>
         <v>0</v>
       </c>
       <c r="Z67" s="3">
@@ -7042,11 +7842,23 @@
         <v>0</v>
       </c>
       <c r="AC67" s="6">
-        <f t="shared" ref="AC67:AC109" si="11">Z67+AA67-AB67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29">
+        <f t="shared" ref="AC67:AC109" si="14">Z67+AA67-AB67</f>
+        <v>0</v>
+      </c>
+      <c r="AE67" s="8">
+        <f t="shared" ref="AE67:AE122" si="15">B67-H67-T67</f>
+        <v>0</v>
+      </c>
+      <c r="AF67" s="8">
+        <f t="shared" ref="AF67:AF122" si="16">C67-L67-X67</f>
+        <v>0</v>
+      </c>
+      <c r="AG67" s="8">
+        <f t="shared" ref="AG67:AG122" si="17">D67-P67-AB67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -7069,7 +7881,7 @@
         <v>259081</v>
       </c>
       <c r="I68" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J68" s="4">
@@ -7082,7 +7894,7 @@
         <v>7353</v>
       </c>
       <c r="M68" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N68" s="3">
@@ -7095,7 +7907,7 @@
         <v>5572</v>
       </c>
       <c r="Q68" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R68" s="3">
@@ -7108,7 +7920,7 @@
         <v>2531434</v>
       </c>
       <c r="U68" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V68" s="3">
@@ -7121,7 +7933,7 @@
         <v>102206</v>
       </c>
       <c r="Y68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z68" s="3">
@@ -7134,11 +7946,23 @@
         <v>59659</v>
       </c>
       <c r="AC68" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE68" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF68" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG68" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -7161,7 +7985,7 @@
         <v>184531</v>
       </c>
       <c r="I69" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J69" s="4">
@@ -7174,7 +7998,7 @@
         <v>8392</v>
       </c>
       <c r="M69" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N69" s="3">
@@ -7187,7 +8011,7 @@
         <v>7528</v>
       </c>
       <c r="Q69" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R69" s="3">
@@ -7200,7 +8024,7 @@
         <v>1131385</v>
       </c>
       <c r="U69" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V69" s="3">
@@ -7213,7 +8037,7 @@
         <v>39432</v>
       </c>
       <c r="Y69" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z69" s="3">
@@ -7226,11 +8050,23 @@
         <v>28823</v>
       </c>
       <c r="AC69" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE69" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF69" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG69" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -7253,7 +8089,7 @@
         <v>11003827</v>
       </c>
       <c r="I70" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J70" s="4">
@@ -7266,7 +8102,7 @@
         <v>409199</v>
       </c>
       <c r="M70" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N70" s="3">
@@ -7279,7 +8115,7 @@
         <v>329346</v>
       </c>
       <c r="Q70" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R70" s="3">
@@ -7292,7 +8128,7 @@
         <v>72868622</v>
       </c>
       <c r="U70" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V70" s="3">
@@ -7305,7 +8141,7 @@
         <v>3382619</v>
       </c>
       <c r="Y70" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z70" s="3">
@@ -7318,11 +8154,23 @@
         <v>2249264</v>
       </c>
       <c r="AC70" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE70" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF70" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG70" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -7345,7 +8193,7 @@
         <v>364945</v>
       </c>
       <c r="I71" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J71" s="4">
@@ -7358,7 +8206,7 @@
         <v>16267</v>
       </c>
       <c r="M71" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N71" s="3">
@@ -7371,7 +8219,7 @@
         <v>13160</v>
       </c>
       <c r="Q71" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R71" s="3">
@@ -7384,7 +8232,7 @@
         <v>2793618</v>
       </c>
       <c r="U71" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V71" s="3">
@@ -7397,7 +8245,7 @@
         <v>150431</v>
       </c>
       <c r="Y71" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z71" s="3">
@@ -7410,11 +8258,23 @@
         <v>95246</v>
       </c>
       <c r="AC71" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE71" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF71" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG71" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -7437,7 +8297,7 @@
         <v>17567355</v>
       </c>
       <c r="I72" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J72" s="4">
@@ -7450,7 +8310,7 @@
         <v>632752</v>
       </c>
       <c r="M72" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N72" s="3">
@@ -7463,7 +8323,7 @@
         <v>483344</v>
       </c>
       <c r="Q72" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R72" s="3">
@@ -7476,7 +8336,7 @@
         <v>112584969</v>
       </c>
       <c r="U72" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V72" s="3">
@@ -7489,7 +8349,7 @@
         <v>4913149</v>
       </c>
       <c r="Y72" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z72" s="3">
@@ -7502,11 +8362,23 @@
         <v>3178464</v>
       </c>
       <c r="AC72" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE72" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF72" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG72" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -7529,7 +8401,7 @@
         <v>80045</v>
       </c>
       <c r="I73" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J73" s="3">
@@ -7542,7 +8414,7 @@
         <v>2025</v>
       </c>
       <c r="M73" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N73" s="3">
@@ -7555,7 +8427,7 @@
         <v>1380</v>
       </c>
       <c r="Q73" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R73" s="3">
@@ -7568,7 +8440,7 @@
         <v>678082</v>
       </c>
       <c r="U73" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V73" s="3">
@@ -7581,7 +8453,7 @@
         <v>17184</v>
       </c>
       <c r="Y73" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z73" s="3">
@@ -7594,11 +8466,23 @@
         <v>12778</v>
       </c>
       <c r="AC73" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE73" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF73" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG73" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -7621,7 +8505,7 @@
         <v>328087</v>
       </c>
       <c r="I74" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J74" s="3">
@@ -7634,7 +8518,7 @@
         <v>8395</v>
       </c>
       <c r="M74" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N74" s="3">
@@ -7647,7 +8531,7 @@
         <v>5659</v>
       </c>
       <c r="Q74" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R74" s="3">
@@ -7660,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="U74" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V74" s="3">
@@ -7673,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="Y74" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z74" s="3">
@@ -7686,11 +8570,23 @@
         <v>0</v>
       </c>
       <c r="AC74" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE74" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF74" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG74" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -7713,7 +8609,7 @@
         <v>39630</v>
       </c>
       <c r="I75" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J75" s="3">
@@ -7726,7 +8622,7 @@
         <v>1096</v>
       </c>
       <c r="M75" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N75" s="3">
@@ -7739,7 +8635,7 @@
         <v>889</v>
       </c>
       <c r="Q75" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R75" s="3">
@@ -7752,7 +8648,7 @@
         <v>120379</v>
       </c>
       <c r="U75" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V75" s="3">
@@ -7765,7 +8661,7 @@
         <v>3440</v>
       </c>
       <c r="Y75" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z75" s="3">
@@ -7778,11 +8674,23 @@
         <v>2345</v>
       </c>
       <c r="AC75" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE75" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF75" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG75" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -7805,7 +8713,7 @@
         <v>62538</v>
       </c>
       <c r="I76" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J76" s="3">
@@ -7818,7 +8726,7 @@
         <v>1439</v>
       </c>
       <c r="M76" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N76" s="3">
@@ -7831,7 +8739,7 @@
         <v>1240</v>
       </c>
       <c r="Q76" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R76" s="3">
@@ -7844,7 +8752,7 @@
         <v>616630</v>
       </c>
       <c r="U76" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V76" s="3">
@@ -7857,7 +8765,7 @@
         <v>13193</v>
       </c>
       <c r="Y76" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z76" s="3">
@@ -7870,19 +8778,31 @@
         <v>12184</v>
       </c>
       <c r="AC76" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE76" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF76" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG76" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33">
       <c r="A77" t="s">
         <v>79</v>
       </c>
       <c r="B77" s="2">
         <v>1096708</v>
       </c>
-      <c r="C77" s="2">
-        <v>22082</v>
+      <c r="C77" s="11">
+        <v>22062</v>
       </c>
       <c r="D77" s="2">
         <v>15462</v>
@@ -7897,7 +8817,7 @@
         <v>106528</v>
       </c>
       <c r="I77" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J77" s="3">
@@ -7910,7 +8830,7 @@
         <v>1956</v>
       </c>
       <c r="M77" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N77" s="3">
@@ -7923,7 +8843,7 @@
         <v>1536</v>
       </c>
       <c r="Q77" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R77" s="3">
@@ -7936,7 +8856,7 @@
         <v>990180</v>
       </c>
       <c r="U77" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V77" s="3">
@@ -7949,7 +8869,7 @@
         <v>20106</v>
       </c>
       <c r="Y77" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z77" s="3">
@@ -7962,11 +8882,23 @@
         <v>13926</v>
       </c>
       <c r="AC77" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE77" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF77" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG77" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -7989,7 +8921,7 @@
         <v>41183</v>
       </c>
       <c r="I78" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J78" s="3">
@@ -8002,7 +8934,7 @@
         <v>704</v>
       </c>
       <c r="M78" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N78" s="3">
@@ -8015,7 +8947,7 @@
         <v>455</v>
       </c>
       <c r="Q78" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R78" s="3">
@@ -8028,7 +8960,7 @@
         <v>308506</v>
       </c>
       <c r="U78" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V78" s="3">
@@ -8041,7 +8973,7 @@
         <v>13014</v>
       </c>
       <c r="Y78" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z78" s="3">
@@ -8054,11 +8986,23 @@
         <v>8426</v>
       </c>
       <c r="AC78" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE78" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF78" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG78" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -8081,7 +9025,7 @@
         <v>211824</v>
       </c>
       <c r="I79" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J79" s="3">
@@ -8094,7 +9038,7 @@
         <v>9792</v>
       </c>
       <c r="M79" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N79" s="3">
@@ -8107,7 +9051,7 @@
         <v>7906</v>
       </c>
       <c r="Q79" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R79" s="3">
@@ -8120,7 +9064,7 @@
         <v>2393761</v>
       </c>
       <c r="U79" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V79" s="3">
@@ -8133,7 +9077,7 @@
         <v>129030</v>
       </c>
       <c r="Y79" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z79" s="3">
@@ -8146,11 +9090,23 @@
         <v>79466</v>
       </c>
       <c r="AC79" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE79" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF79" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG79" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -8173,7 +9129,7 @@
         <v>78193</v>
       </c>
       <c r="I80" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J80" s="3">
@@ -8186,7 +9142,7 @@
         <v>1524</v>
       </c>
       <c r="M80" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N80" s="3">
@@ -8199,7 +9155,7 @@
         <v>891</v>
       </c>
       <c r="Q80" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R80" s="3">
@@ -8212,7 +9168,7 @@
         <v>1024644</v>
       </c>
       <c r="U80" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V80" s="3">
@@ -8225,7 +9181,7 @@
         <v>27038</v>
       </c>
       <c r="Y80" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z80" s="3">
@@ -8238,11 +9194,23 @@
         <v>16165</v>
       </c>
       <c r="AC80" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE80" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF80" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG80" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -8252,8 +9220,8 @@
       <c r="C81" s="2">
         <v>68031</v>
       </c>
-      <c r="D81" s="2">
-        <v>48995</v>
+      <c r="D81" s="11">
+        <v>48905</v>
       </c>
       <c r="F81" s="3">
         <v>34840</v>
@@ -8265,7 +9233,7 @@
         <v>69089</v>
       </c>
       <c r="I81" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J81" s="3">
@@ -8278,7 +9246,7 @@
         <v>2636</v>
       </c>
       <c r="M81" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N81" s="3">
@@ -8291,7 +9259,7 @@
         <v>2037</v>
       </c>
       <c r="Q81" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R81" s="3">
@@ -8304,7 +9272,7 @@
         <v>1131711</v>
       </c>
       <c r="U81" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V81" s="3">
@@ -8317,7 +9285,7 @@
         <v>65395</v>
       </c>
       <c r="Y81" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z81" s="3">
@@ -8330,11 +9298,23 @@
         <v>46868</v>
       </c>
       <c r="AC81" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE81" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF81" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG81" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -8357,7 +9337,7 @@
         <v>178257</v>
       </c>
       <c r="I82" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J82" s="3">
@@ -8370,7 +9350,7 @@
         <v>9027</v>
       </c>
       <c r="M82" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N82" s="3">
@@ -8383,7 +9363,7 @@
         <v>5312</v>
       </c>
       <c r="Q82" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R82" s="3">
@@ -8396,7 +9376,7 @@
         <v>947634</v>
       </c>
       <c r="U82" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V82" s="3">
@@ -8409,7 +9389,7 @@
         <v>39107</v>
       </c>
       <c r="Y82" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z82" s="3">
@@ -8422,11 +9402,23 @@
         <v>23106</v>
       </c>
       <c r="AC82" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE82" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF82" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG82" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -8449,7 +9441,7 @@
         <v>349569</v>
       </c>
       <c r="I83" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J83" s="3">
@@ -8462,7 +9454,7 @@
         <v>9688</v>
       </c>
       <c r="M83" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N83" s="3">
@@ -8475,7 +9467,7 @@
         <v>5379</v>
       </c>
       <c r="Q83" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R83" s="3">
@@ -8488,7 +9480,7 @@
         <v>852325</v>
       </c>
       <c r="U83" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V83" s="3">
@@ -8501,7 +9493,7 @@
         <v>34407</v>
       </c>
       <c r="Y83" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z83" s="3">
@@ -8514,11 +9506,23 @@
         <v>18513</v>
       </c>
       <c r="AC83" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE83" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF83" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG83" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -8541,7 +9545,7 @@
         <v>59374</v>
       </c>
       <c r="I84" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J84" s="3">
@@ -8554,7 +9558,7 @@
         <v>2003</v>
       </c>
       <c r="M84" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N84" s="3">
@@ -8567,7 +9571,7 @@
         <v>1375</v>
       </c>
       <c r="Q84" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R84" s="3">
@@ -8580,7 +9584,7 @@
         <v>61241</v>
       </c>
       <c r="U84" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V84" s="3">
@@ -8593,7 +9597,7 @@
         <v>2322</v>
       </c>
       <c r="Y84" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z84" s="3">
@@ -8606,11 +9610,23 @@
         <v>1378</v>
       </c>
       <c r="AC84" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE84" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF84" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG84" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -8633,7 +9649,7 @@
         <v>89769</v>
       </c>
       <c r="I85" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J85" s="3">
@@ -8646,7 +9662,7 @@
         <v>3412</v>
       </c>
       <c r="M85" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N85" s="3">
@@ -8659,7 +9675,7 @@
         <v>2418</v>
       </c>
       <c r="Q85" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R85" s="3">
@@ -8672,7 +9688,7 @@
         <v>792651</v>
       </c>
       <c r="U85" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V85" s="3">
@@ -8685,7 +9701,7 @@
         <v>29874</v>
       </c>
       <c r="Y85" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z85" s="3">
@@ -8698,16 +9714,28 @@
         <v>19228</v>
       </c>
       <c r="AC85" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE85" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF85" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG85" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33">
       <c r="A86" t="s">
         <v>88</v>
       </c>
-      <c r="B86" s="2">
-        <v>11611330</v>
+      <c r="B86" s="11">
+        <v>11611830</v>
       </c>
       <c r="C86" s="2">
         <v>447807</v>
@@ -8725,7 +9753,7 @@
         <v>1694086</v>
       </c>
       <c r="I86" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J86" s="3">
@@ -8738,7 +9766,7 @@
         <v>53697</v>
       </c>
       <c r="M86" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N86" s="3">
@@ -8751,7 +9779,7 @@
         <v>36477</v>
       </c>
       <c r="Q86" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R86" s="3">
@@ -8764,7 +9792,7 @@
         <v>9917744</v>
       </c>
       <c r="U86" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V86" s="3">
@@ -8777,7 +9805,7 @@
         <v>394110</v>
       </c>
       <c r="Y86" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z86" s="3">
@@ -8790,11 +9818,23 @@
         <v>254383</v>
       </c>
       <c r="AC86" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE86" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF86" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG86" s="8">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -8817,7 +9857,7 @@
         <v>68064</v>
       </c>
       <c r="I87" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J87" s="3">
@@ -8830,7 +9870,7 @@
         <v>2223</v>
       </c>
       <c r="M87" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N87" s="3">
@@ -8843,7 +9883,7 @@
         <v>1580</v>
       </c>
       <c r="Q87" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R87" s="3">
@@ -8856,7 +9896,7 @@
         <v>130796</v>
       </c>
       <c r="U87" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V87" s="3">
@@ -8869,7 +9909,7 @@
         <v>6128</v>
       </c>
       <c r="Y87" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z87" s="3">
@@ -8882,11 +9922,23 @@
         <v>3646</v>
       </c>
       <c r="AC87" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE87" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF87" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG87" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -8909,7 +9961,7 @@
         <v>123155</v>
       </c>
       <c r="I88" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J88" s="3">
@@ -8922,7 +9974,7 @@
         <v>5384</v>
       </c>
       <c r="M88" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N88" s="3">
@@ -8935,7 +9987,7 @@
         <v>4525</v>
       </c>
       <c r="Q88" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R88" s="3">
@@ -8948,7 +10000,7 @@
         <v>796818</v>
       </c>
       <c r="U88" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V88" s="3">
@@ -8961,7 +10013,7 @@
         <v>47997</v>
       </c>
       <c r="Y88" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z88" s="3">
@@ -8974,11 +10026,23 @@
         <v>29851</v>
       </c>
       <c r="AC88" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE88" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF88" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG88" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33">
       <c r="A89" t="s">
         <v>112</v>
       </c>
@@ -9001,7 +10065,7 @@
         <v>116652</v>
       </c>
       <c r="I89" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J89" s="3">
@@ -9014,7 +10078,7 @@
         <v>4364</v>
       </c>
       <c r="M89" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N89" s="3">
@@ -9027,7 +10091,7 @@
         <v>2673</v>
       </c>
       <c r="Q89" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R89" s="3">
@@ -9040,7 +10104,7 @@
         <v>743693</v>
       </c>
       <c r="U89" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V89" s="3">
@@ -9053,7 +10117,7 @@
         <v>30701</v>
       </c>
       <c r="Y89" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z89" s="3">
@@ -9066,11 +10130,23 @@
         <v>19380</v>
       </c>
       <c r="AC89" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE89" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF89" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG89" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -9093,7 +10169,7 @@
         <v>64322</v>
       </c>
       <c r="I90" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J90" s="3">
@@ -9106,7 +10182,7 @@
         <v>3306</v>
       </c>
       <c r="M90" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N90" s="3">
@@ -9119,7 +10195,7 @@
         <v>3290</v>
       </c>
       <c r="Q90" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R90" s="3">
@@ -9132,7 +10208,7 @@
         <v>535788</v>
       </c>
       <c r="U90" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V90" s="3">
@@ -9145,7 +10221,7 @@
         <v>24391</v>
       </c>
       <c r="Y90" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z90" s="3">
@@ -9158,11 +10234,23 @@
         <v>17273</v>
       </c>
       <c r="AC90" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE90" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF90" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG90" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -9185,7 +10273,7 @@
         <v>2240</v>
       </c>
       <c r="I91" s="6" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="J91" s="3" t="s">
@@ -9198,7 +10286,7 @@
         <v>78</v>
       </c>
       <c r="M91" s="6" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N91" s="3" t="s">
@@ -9211,7 +10299,7 @@
         <v>56</v>
       </c>
       <c r="Q91" s="6" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="R91" s="3" t="s">
@@ -9224,732 +10312,828 @@
         <v>26597</v>
       </c>
       <c r="U91" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="X91" s="3">
+        <v>241</v>
+      </c>
+      <c r="Y91" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB91" s="2">
+        <v>195</v>
+      </c>
+      <c r="AC91" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE91" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF91" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG91" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="2">
+        <v>517863</v>
+      </c>
+      <c r="C92" s="2">
+        <v>15839</v>
+      </c>
+      <c r="D92" s="2">
+        <v>7380</v>
+      </c>
+      <c r="F92" s="3">
+        <v>119188</v>
+      </c>
+      <c r="G92" s="3">
+        <v>54474</v>
+      </c>
+      <c r="H92" s="3">
+        <v>173662</v>
+      </c>
+      <c r="I92" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="3">
+        <v>3329</v>
+      </c>
+      <c r="K92" s="3">
+        <v>2979</v>
+      </c>
+      <c r="L92" s="3">
+        <v>6308</v>
+      </c>
+      <c r="M92" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>1560</v>
+      </c>
+      <c r="O92" s="3">
+        <v>803</v>
+      </c>
+      <c r="P92" s="3">
+        <v>2363</v>
+      </c>
+      <c r="Q92" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>213539</v>
+      </c>
+      <c r="S92" s="3">
+        <v>130662</v>
+      </c>
+      <c r="T92" s="3">
+        <v>344201</v>
+      </c>
+      <c r="U92" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>4898</v>
+      </c>
+      <c r="W92" s="3">
+        <v>4633</v>
+      </c>
+      <c r="X92" s="3">
+        <v>9531</v>
+      </c>
+      <c r="Y92" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>2702</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>2315</v>
+      </c>
+      <c r="AB92" s="2">
+        <v>5017</v>
+      </c>
+      <c r="AC92" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE92" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF92" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG92" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="2">
+        <v>7770</v>
+      </c>
+      <c r="C93" s="2">
+        <v>183</v>
+      </c>
+      <c r="D93" s="2">
+        <v>141</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0</v>
+      </c>
+      <c r="H93" s="3">
+        <v>0</v>
+      </c>
+      <c r="I93" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="3">
+        <v>0</v>
+      </c>
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>5094</v>
+      </c>
+      <c r="S93" s="3">
+        <v>2676</v>
+      </c>
+      <c r="T93" s="3">
+        <v>7770</v>
+      </c>
+      <c r="U93" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>84</v>
+      </c>
+      <c r="W93" s="3">
+        <v>99</v>
+      </c>
+      <c r="X93" s="3">
+        <v>183</v>
+      </c>
+      <c r="Y93" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>95</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>46</v>
+      </c>
+      <c r="AB93" s="2">
+        <v>141</v>
+      </c>
+      <c r="AC93" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE93" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF93" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG93" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1898053</v>
+      </c>
+      <c r="C94" s="2">
+        <v>107248</v>
+      </c>
+      <c r="D94" s="2">
+        <v>80766</v>
+      </c>
+      <c r="F94" s="3">
+        <v>70403</v>
+      </c>
+      <c r="G94" s="3">
+        <v>59395</v>
+      </c>
+      <c r="H94" s="3">
+        <v>129798</v>
+      </c>
+      <c r="I94" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>2704</v>
+      </c>
+      <c r="K94" s="3">
+        <v>2682</v>
+      </c>
+      <c r="L94" s="3">
+        <v>5386</v>
+      </c>
+      <c r="M94" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>2518</v>
+      </c>
+      <c r="O94" s="3">
+        <v>2141</v>
+      </c>
+      <c r="P94" s="3">
+        <v>4659</v>
+      </c>
+      <c r="Q94" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>885578</v>
+      </c>
+      <c r="S94" s="3">
+        <v>882677</v>
+      </c>
+      <c r="T94" s="3">
+        <v>1768255</v>
+      </c>
+      <c r="U94" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>52078</v>
+      </c>
+      <c r="W94" s="3">
+        <v>49784</v>
+      </c>
+      <c r="X94" s="3">
+        <v>101862</v>
+      </c>
+      <c r="Y94" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>39360</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>36747</v>
+      </c>
+      <c r="AB94" s="2">
+        <v>76107</v>
+      </c>
+      <c r="AC94" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE94" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF94" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG94" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="2">
+        <v>3453985</v>
+      </c>
+      <c r="C95" s="2">
+        <v>205816</v>
+      </c>
+      <c r="D95" s="2">
+        <v>123826</v>
+      </c>
+      <c r="F95" s="3">
+        <v>105347</v>
+      </c>
+      <c r="G95" s="3">
+        <v>97860</v>
+      </c>
+      <c r="H95" s="3">
+        <v>203207</v>
+      </c>
+      <c r="I95" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K95" s="3">
+        <v>5651</v>
+      </c>
+      <c r="L95" s="3">
+        <v>11751</v>
+      </c>
+      <c r="M95" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N95" s="3">
+        <v>3546</v>
+      </c>
+      <c r="O95" s="3">
+        <v>3425</v>
+      </c>
+      <c r="P95" s="3">
+        <v>6971</v>
+      </c>
+      <c r="Q95" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R95" s="3">
+        <v>1645632</v>
+      </c>
+      <c r="S95" s="3">
+        <v>1605146</v>
+      </c>
+      <c r="T95" s="3">
+        <v>3250778</v>
+      </c>
+      <c r="U95" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V95" s="3">
+        <v>97493</v>
+      </c>
+      <c r="W95" s="3">
+        <v>96572</v>
+      </c>
+      <c r="X95" s="3">
+        <v>194065</v>
+      </c>
+      <c r="Y95" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z95" s="3">
+        <v>60574</v>
+      </c>
+      <c r="AA95" s="3">
+        <v>56281</v>
+      </c>
+      <c r="AB95" s="2">
+        <v>116855</v>
+      </c>
+      <c r="AC95" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE95" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF95" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG95" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="2">
+        <v>270370</v>
+      </c>
+      <c r="C96" s="2">
+        <v>11183</v>
+      </c>
+      <c r="D96" s="2">
+        <v>8020</v>
+      </c>
+      <c r="F96" s="3">
+        <v>5916</v>
+      </c>
+      <c r="G96" s="3">
+        <v>4480</v>
+      </c>
+      <c r="H96" s="3">
+        <v>10396</v>
+      </c>
+      <c r="I96" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>398</v>
+      </c>
+      <c r="K96" s="3">
+        <v>354</v>
+      </c>
+      <c r="L96" s="3">
+        <v>752</v>
+      </c>
+      <c r="M96" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>376</v>
+      </c>
+      <c r="O96" s="3">
+        <v>287</v>
+      </c>
+      <c r="P96" s="3">
+        <v>663</v>
+      </c>
+      <c r="Q96" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>134866</v>
+      </c>
+      <c r="S96" s="3">
+        <v>125108</v>
+      </c>
+      <c r="T96" s="3">
+        <v>259974</v>
+      </c>
+      <c r="U96" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>5349</v>
+      </c>
+      <c r="W96" s="3">
+        <v>5082</v>
+      </c>
+      <c r="X96" s="3">
+        <v>10431</v>
+      </c>
+      <c r="Y96" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>3812</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>3545</v>
+      </c>
+      <c r="AB96" s="2">
+        <v>7357</v>
+      </c>
+      <c r="AC96" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE96" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF96" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG96" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="2">
+        <v>8756166</v>
+      </c>
+      <c r="C97" s="11">
+        <v>465082</v>
+      </c>
+      <c r="D97" s="2">
+        <v>302602</v>
+      </c>
+      <c r="F97" s="3">
+        <v>518509</v>
+      </c>
+      <c r="G97" s="3">
+        <v>370747</v>
+      </c>
+      <c r="H97" s="3">
+        <v>891496</v>
+      </c>
+      <c r="I97" s="6">
+        <f t="shared" si="9"/>
+        <v>-2240</v>
+      </c>
+      <c r="J97" s="3">
+        <v>20038</v>
+      </c>
+      <c r="K97" s="3">
+        <v>19436</v>
+      </c>
+      <c r="L97" s="3">
+        <v>39552</v>
+      </c>
+      <c r="M97" s="6">
+        <f t="shared" si="10"/>
+        <v>-78</v>
+      </c>
+      <c r="N97" s="3">
+        <v>14687</v>
+      </c>
+      <c r="O97" s="3">
+        <v>12037</v>
+      </c>
+      <c r="P97" s="3">
+        <v>26780</v>
+      </c>
+      <c r="Q97" s="6">
+        <f t="shared" si="11"/>
+        <v>-56</v>
+      </c>
+      <c r="R97" s="3">
+        <v>4050236</v>
+      </c>
+      <c r="S97" s="3">
+        <v>3787837</v>
+      </c>
+      <c r="T97" s="3">
+        <v>7864670</v>
+      </c>
+      <c r="U97" s="6">
+        <f t="shared" si="12"/>
+        <v>-26597</v>
+      </c>
+      <c r="V97" s="3">
+        <v>215944</v>
+      </c>
+      <c r="W97" s="3">
+        <v>209345</v>
+      </c>
+      <c r="X97" s="3">
+        <v>425530</v>
+      </c>
+      <c r="Y97" s="6">
+        <f t="shared" si="13"/>
+        <v>-241</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>143434</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>132193</v>
+      </c>
+      <c r="AB97" s="2">
+        <v>275822</v>
+      </c>
+      <c r="AC97" s="6">
+        <f t="shared" si="14"/>
+        <v>-195</v>
+      </c>
+      <c r="AE97" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF97" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG97" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1217834</v>
+      </c>
+      <c r="C98" s="2">
+        <v>45660</v>
+      </c>
+      <c r="D98" s="2">
+        <v>26162</v>
+      </c>
+      <c r="F98" s="3">
+        <v>76492</v>
+      </c>
+      <c r="G98" s="3">
+        <v>76396</v>
+      </c>
+      <c r="H98" s="3">
+        <v>152888</v>
+      </c>
+      <c r="I98" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="3">
+        <v>4042</v>
+      </c>
+      <c r="K98" s="3">
+        <v>3875</v>
+      </c>
+      <c r="L98" s="3">
+        <v>7917</v>
+      </c>
+      <c r="M98" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>3246</v>
+      </c>
+      <c r="O98" s="3">
+        <v>3023</v>
+      </c>
+      <c r="P98" s="3">
+        <v>6269</v>
+      </c>
+      <c r="Q98" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>553467</v>
+      </c>
+      <c r="S98" s="3">
+        <v>511479</v>
+      </c>
+      <c r="T98" s="3">
+        <v>1064946</v>
+      </c>
+      <c r="U98" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>19425</v>
+      </c>
+      <c r="W98" s="3">
+        <v>18318</v>
+      </c>
+      <c r="X98" s="3">
+        <v>37743</v>
+      </c>
+      <c r="Y98" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>9921</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>9972</v>
+      </c>
+      <c r="AB98" s="2">
+        <v>19893</v>
+      </c>
+      <c r="AC98" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE98" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF98" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG98" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="2">
+        <v>431308</v>
+      </c>
+      <c r="C99" s="2">
+        <v>12951</v>
+      </c>
+      <c r="D99" s="2">
+        <v>7399</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H99" s="3">
+        <v>73289</v>
+      </c>
+      <c r="I99" s="6" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="V91" s="3" t="s">
+      <c r="J99" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="W91" s="3" t="s">
+      <c r="K99" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="X91" s="3">
-        <v>241</v>
-      </c>
-      <c r="Y91" s="6" t="e">
+      <c r="L99" s="3">
+        <v>2747</v>
+      </c>
+      <c r="M99" s="6" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Z91" s="3" t="s">
+      <c r="N99" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AA91" s="3" t="s">
+      <c r="O99" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AB91" s="2">
-        <v>195</v>
-      </c>
-      <c r="AC91" s="6" t="e">
+      <c r="P99" s="3">
+        <v>1590</v>
+      </c>
+      <c r="Q99" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="92" spans="1:29">
-      <c r="A92" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" s="2">
-        <v>517863</v>
-      </c>
-      <c r="C92" s="2">
-        <v>15839</v>
-      </c>
-      <c r="D92" s="2">
-        <v>7380</v>
-      </c>
-      <c r="F92" s="3">
-        <v>119188</v>
-      </c>
-      <c r="G92" s="3">
-        <v>54474</v>
-      </c>
-      <c r="H92" s="3">
-        <v>173662</v>
-      </c>
-      <c r="I92" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="3">
-        <v>3329</v>
-      </c>
-      <c r="K92" s="3">
-        <v>2979</v>
-      </c>
-      <c r="L92" s="3">
-        <v>6308</v>
-      </c>
-      <c r="M92" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N92" s="3">
-        <v>1560</v>
-      </c>
-      <c r="O92" s="3">
-        <v>803</v>
-      </c>
-      <c r="P92" s="3">
-        <v>2363</v>
-      </c>
-      <c r="Q92" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R92" s="3">
-        <v>213539</v>
-      </c>
-      <c r="S92" s="3">
-        <v>130662</v>
-      </c>
-      <c r="T92" s="3">
-        <v>344201</v>
-      </c>
-      <c r="U92" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V92" s="3">
-        <v>4898</v>
-      </c>
-      <c r="W92" s="3">
-        <v>4633</v>
-      </c>
-      <c r="X92" s="3">
-        <v>9531</v>
-      </c>
-      <c r="Y92" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z92" s="3">
-        <v>2702</v>
-      </c>
-      <c r="AA92" s="3">
-        <v>2315</v>
-      </c>
-      <c r="AB92" s="2">
-        <v>5017</v>
-      </c>
-      <c r="AC92" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29">
-      <c r="A93" t="s">
-        <v>94</v>
-      </c>
-      <c r="B93" s="2">
-        <v>7770</v>
-      </c>
-      <c r="C93" s="2">
-        <v>183</v>
-      </c>
-      <c r="D93" s="2">
-        <v>141</v>
-      </c>
-      <c r="F93" s="3">
-        <v>0</v>
-      </c>
-      <c r="G93" s="3">
-        <v>0</v>
-      </c>
-      <c r="H93" s="3">
-        <v>0</v>
-      </c>
-      <c r="I93" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="3">
-        <v>0</v>
-      </c>
-      <c r="K93" s="3">
-        <v>0</v>
-      </c>
-      <c r="L93" s="3">
-        <v>0</v>
-      </c>
-      <c r="M93" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N93" s="3">
-        <v>0</v>
-      </c>
-      <c r="O93" s="3">
-        <v>0</v>
-      </c>
-      <c r="P93" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R93" s="3">
-        <v>5094</v>
-      </c>
-      <c r="S93" s="3">
-        <v>2676</v>
-      </c>
-      <c r="T93" s="3">
-        <v>7770</v>
-      </c>
-      <c r="U93" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V93" s="3">
-        <v>84</v>
-      </c>
-      <c r="W93" s="3">
-        <v>99</v>
-      </c>
-      <c r="X93" s="3">
-        <v>183</v>
-      </c>
-      <c r="Y93" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z93" s="3">
-        <v>95</v>
-      </c>
-      <c r="AA93" s="3">
-        <v>46</v>
-      </c>
-      <c r="AB93" s="2">
-        <v>141</v>
-      </c>
-      <c r="AC93" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29">
-      <c r="A94" t="s">
-        <v>95</v>
-      </c>
-      <c r="B94" s="2">
-        <v>1898053</v>
-      </c>
-      <c r="C94" s="2">
-        <v>107248</v>
-      </c>
-      <c r="D94" s="2">
-        <v>80766</v>
-      </c>
-      <c r="F94" s="3">
-        <v>70403</v>
-      </c>
-      <c r="G94" s="3">
-        <v>59395</v>
-      </c>
-      <c r="H94" s="3">
-        <v>129798</v>
-      </c>
-      <c r="I94" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>2704</v>
-      </c>
-      <c r="K94" s="3">
-        <v>2682</v>
-      </c>
-      <c r="L94" s="3">
-        <v>5386</v>
-      </c>
-      <c r="M94" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>2518</v>
-      </c>
-      <c r="O94" s="3">
-        <v>2141</v>
-      </c>
-      <c r="P94" s="3">
-        <v>4659</v>
-      </c>
-      <c r="Q94" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>885578</v>
-      </c>
-      <c r="S94" s="3">
-        <v>882677</v>
-      </c>
-      <c r="T94" s="3">
-        <v>1768255</v>
-      </c>
-      <c r="U94" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>52078</v>
-      </c>
-      <c r="W94" s="3">
-        <v>49784</v>
-      </c>
-      <c r="X94" s="3">
-        <v>101862</v>
-      </c>
-      <c r="Y94" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>39360</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>36747</v>
-      </c>
-      <c r="AB94" s="2">
-        <v>76107</v>
-      </c>
-      <c r="AC94" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29">
-      <c r="A95" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" s="2">
-        <v>3453985</v>
-      </c>
-      <c r="C95" s="2">
-        <v>205816</v>
-      </c>
-      <c r="D95" s="2">
-        <v>123826</v>
-      </c>
-      <c r="F95" s="3">
-        <v>105347</v>
-      </c>
-      <c r="G95" s="3">
-        <v>97860</v>
-      </c>
-      <c r="H95" s="3">
-        <v>203207</v>
-      </c>
-      <c r="I95" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="3">
-        <v>6100</v>
-      </c>
-      <c r="K95" s="3">
-        <v>5651</v>
-      </c>
-      <c r="L95" s="3">
-        <v>11751</v>
-      </c>
-      <c r="M95" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N95" s="3">
-        <v>3546</v>
-      </c>
-      <c r="O95" s="3">
-        <v>3425</v>
-      </c>
-      <c r="P95" s="3">
-        <v>6971</v>
-      </c>
-      <c r="Q95" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R95" s="3">
-        <v>1645632</v>
-      </c>
-      <c r="S95" s="3">
-        <v>1605146</v>
-      </c>
-      <c r="T95" s="3">
-        <v>3250778</v>
-      </c>
-      <c r="U95" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V95" s="3">
-        <v>97493</v>
-      </c>
-      <c r="W95" s="3">
-        <v>96572</v>
-      </c>
-      <c r="X95" s="3">
-        <v>194065</v>
-      </c>
-      <c r="Y95" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z95" s="3">
-        <v>60574</v>
-      </c>
-      <c r="AA95" s="3">
-        <v>56281</v>
-      </c>
-      <c r="AB95" s="2">
-        <v>116855</v>
-      </c>
-      <c r="AC95" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29">
-      <c r="A96" t="s">
-        <v>97</v>
-      </c>
-      <c r="B96" s="2">
-        <v>270370</v>
-      </c>
-      <c r="C96" s="2">
-        <v>11183</v>
-      </c>
-      <c r="D96" s="2">
-        <v>8020</v>
-      </c>
-      <c r="F96" s="3">
-        <v>5916</v>
-      </c>
-      <c r="G96" s="3">
-        <v>4480</v>
-      </c>
-      <c r="H96" s="3">
-        <v>10396</v>
-      </c>
-      <c r="I96" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>398</v>
-      </c>
-      <c r="K96" s="3">
-        <v>354</v>
-      </c>
-      <c r="L96" s="3">
-        <v>752</v>
-      </c>
-      <c r="M96" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>376</v>
-      </c>
-      <c r="O96" s="3">
-        <v>287</v>
-      </c>
-      <c r="P96" s="3">
-        <v>663</v>
-      </c>
-      <c r="Q96" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R96" s="3">
-        <v>134866</v>
-      </c>
-      <c r="S96" s="3">
-        <v>125108</v>
-      </c>
-      <c r="T96" s="3">
-        <v>259974</v>
-      </c>
-      <c r="U96" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V96" s="3">
-        <v>5349</v>
-      </c>
-      <c r="W96" s="3">
-        <v>5082</v>
-      </c>
-      <c r="X96" s="3">
-        <v>10431</v>
-      </c>
-      <c r="Y96" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>3812</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>3545</v>
-      </c>
-      <c r="AB96" s="2">
-        <v>7357</v>
-      </c>
-      <c r="AC96" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29">
-      <c r="A97" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97" s="2">
-        <v>8756166</v>
-      </c>
-      <c r="C97" s="2">
-        <v>465032</v>
-      </c>
-      <c r="D97" s="2">
-        <v>302602</v>
-      </c>
-      <c r="F97" s="3">
-        <v>518509</v>
-      </c>
-      <c r="G97" s="3">
-        <v>370747</v>
-      </c>
-      <c r="H97" s="3">
-        <v>891496</v>
-      </c>
-      <c r="I97" s="6">
-        <f t="shared" si="6"/>
-        <v>-2240</v>
-      </c>
-      <c r="J97" s="3">
-        <v>20038</v>
-      </c>
-      <c r="K97" s="3">
-        <v>19436</v>
-      </c>
-      <c r="L97" s="3">
-        <v>39552</v>
-      </c>
-      <c r="M97" s="6">
-        <f t="shared" si="7"/>
-        <v>-78</v>
-      </c>
-      <c r="N97" s="3">
-        <v>14687</v>
-      </c>
-      <c r="O97" s="3">
-        <v>12037</v>
-      </c>
-      <c r="P97" s="3">
-        <v>26780</v>
-      </c>
-      <c r="Q97" s="6">
-        <f t="shared" si="8"/>
-        <v>-56</v>
-      </c>
-      <c r="R97" s="3">
-        <v>4050236</v>
-      </c>
-      <c r="S97" s="3">
-        <v>3787837</v>
-      </c>
-      <c r="T97" s="3">
-        <v>7864670</v>
-      </c>
-      <c r="U97" s="6">
-        <f t="shared" si="9"/>
-        <v>-26597</v>
-      </c>
-      <c r="V97" s="3">
-        <v>215944</v>
-      </c>
-      <c r="W97" s="3">
-        <v>209345</v>
-      </c>
-      <c r="X97" s="3">
-        <v>425530</v>
-      </c>
-      <c r="Y97" s="6">
-        <f t="shared" si="10"/>
-        <v>-241</v>
-      </c>
-      <c r="Z97" s="3">
-        <v>143434</v>
-      </c>
-      <c r="AA97" s="3">
-        <v>132193</v>
-      </c>
-      <c r="AB97" s="2">
-        <v>275822</v>
-      </c>
-      <c r="AC97" s="6">
-        <f t="shared" si="11"/>
-        <v>-195</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29">
-      <c r="A98" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98" s="2">
-        <v>1217834</v>
-      </c>
-      <c r="C98" s="2">
-        <v>45660</v>
-      </c>
-      <c r="D98" s="2">
-        <v>26162</v>
-      </c>
-      <c r="F98" s="3">
-        <v>76492</v>
-      </c>
-      <c r="G98" s="3">
-        <v>76396</v>
-      </c>
-      <c r="H98" s="3">
-        <v>152888</v>
-      </c>
-      <c r="I98" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="3">
-        <v>4042</v>
-      </c>
-      <c r="K98" s="3">
-        <v>3875</v>
-      </c>
-      <c r="L98" s="3">
-        <v>7917</v>
-      </c>
-      <c r="M98" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N98" s="3">
-        <v>3246</v>
-      </c>
-      <c r="O98" s="3">
-        <v>3023</v>
-      </c>
-      <c r="P98" s="3">
-        <v>6269</v>
-      </c>
-      <c r="Q98" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R98" s="3">
-        <v>553467</v>
-      </c>
-      <c r="S98" s="3">
-        <v>511479</v>
-      </c>
-      <c r="T98" s="3">
-        <v>1064946</v>
-      </c>
-      <c r="U98" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V98" s="3">
-        <v>19425</v>
-      </c>
-      <c r="W98" s="3">
-        <v>18318</v>
-      </c>
-      <c r="X98" s="3">
-        <v>37743</v>
-      </c>
-      <c r="Y98" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z98" s="3">
-        <v>9921</v>
-      </c>
-      <c r="AA98" s="3">
-        <v>9972</v>
-      </c>
-      <c r="AB98" s="2">
-        <v>19893</v>
-      </c>
-      <c r="AC98" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:29">
-      <c r="A99" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99" s="2">
-        <v>431308</v>
-      </c>
-      <c r="C99" s="2">
-        <v>12951</v>
-      </c>
-      <c r="D99" s="2">
-        <v>7399</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H99" s="3">
-        <v>73289</v>
-      </c>
-      <c r="I99" s="6" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L99" s="3">
-        <v>2747</v>
-      </c>
-      <c r="M99" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N99" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="O99" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="P99" s="3">
-        <v>1590</v>
-      </c>
-      <c r="Q99" s="6" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="R99" s="3" t="s">
         <v>111</v>
       </c>
@@ -9960,7 +11144,7 @@
         <v>358019</v>
       </c>
       <c r="U99" s="6" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="V99" s="3" t="s">
@@ -9973,75 +11157,87 @@
         <v>10204</v>
       </c>
       <c r="Y99" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z99" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA99" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB99" s="2">
+        <v>5809</v>
+      </c>
+      <c r="AC99" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE99" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF99" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG99" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="2">
+        <v>879745</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F100" s="3">
+        <v>73213</v>
+      </c>
+      <c r="G100" s="3">
+        <v>68548</v>
+      </c>
+      <c r="H100" s="3">
+        <v>141761</v>
+      </c>
+      <c r="I100" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M100" s="6" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Z99" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AA99" s="3" t="s">
+      <c r="O100" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AB99" s="2">
-        <v>5809</v>
-      </c>
-      <c r="AC99" s="6" t="e">
+      <c r="P100" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q100" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="100" spans="1:29">
-      <c r="A100" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" s="2">
-        <v>879745</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F100" s="3">
-        <v>73213</v>
-      </c>
-      <c r="G100" s="3">
-        <v>68548</v>
-      </c>
-      <c r="H100" s="3">
-        <v>141761</v>
-      </c>
-      <c r="I100" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M100" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q100" s="6" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="R100" s="3">
         <v>396244</v>
       </c>
@@ -10052,7 +11248,7 @@
         <v>737984</v>
       </c>
       <c r="U100" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V100" s="3" t="s">
@@ -10065,7 +11261,7 @@
         <v>111</v>
       </c>
       <c r="Y100" s="6" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z100" s="3" t="s">
@@ -10078,11 +11274,23 @@
         <v>111</v>
       </c>
       <c r="AC100" s="6" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="101" spans="1:29">
+      <c r="AE100" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF100" s="8" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG100" s="8" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -10105,7 +11313,7 @@
         <v>58690</v>
       </c>
       <c r="I101" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J101" s="3">
@@ -10118,7 +11326,7 @@
         <v>3288</v>
       </c>
       <c r="M101" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N101" s="3">
@@ -10131,7 +11339,7 @@
         <v>2657</v>
       </c>
       <c r="Q101" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R101" s="3">
@@ -10144,7 +11352,7 @@
         <v>839601</v>
       </c>
       <c r="U101" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V101" s="3">
@@ -10157,7 +11365,7 @@
         <v>18374</v>
       </c>
       <c r="Y101" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z101" s="3">
@@ -10170,11 +11378,23 @@
         <v>11355</v>
       </c>
       <c r="AC101" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE101" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF101" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG101" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -10197,7 +11417,7 @@
         <v>98666</v>
       </c>
       <c r="I102" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J102" s="3">
@@ -10210,7 +11430,7 @@
         <v>3862</v>
       </c>
       <c r="M102" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N102" s="3">
@@ -10223,7 +11443,7 @@
         <v>2200</v>
       </c>
       <c r="Q102" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R102" s="3">
@@ -10236,7 +11456,7 @@
         <v>1018699</v>
       </c>
       <c r="U102" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V102" s="3">
@@ -10249,7 +11469,7 @@
         <v>34382</v>
       </c>
       <c r="Y102" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z102" s="3">
@@ -10262,11 +11482,23 @@
         <v>21632</v>
       </c>
       <c r="AC102" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE102" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF102" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG102" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -10289,7 +11521,7 @@
         <v>262868</v>
       </c>
       <c r="I103" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J103" s="3">
@@ -10302,7 +11534,7 @@
         <v>8796</v>
       </c>
       <c r="M103" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N103" s="3">
@@ -10315,7 +11547,7 @@
         <v>5045</v>
       </c>
       <c r="Q103" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R103" s="3">
@@ -10328,7 +11560,7 @@
         <v>1447306</v>
       </c>
       <c r="U103" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V103" s="3">
@@ -10341,7 +11573,7 @@
         <v>44701</v>
       </c>
       <c r="Y103" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z103" s="3">
@@ -10354,11 +11586,23 @@
         <v>30874</v>
       </c>
       <c r="AC103" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE103" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF103" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG103" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -10381,7 +11625,7 @@
         <v>35837</v>
       </c>
       <c r="I104" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J104" s="3">
@@ -10394,7 +11638,7 @@
         <v>2101</v>
       </c>
       <c r="M104" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N104" s="3">
@@ -10407,7 +11651,7 @@
         <v>1551</v>
       </c>
       <c r="Q104" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R104" s="3">
@@ -10420,7 +11664,7 @@
         <v>644673</v>
       </c>
       <c r="U104" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V104" s="3">
@@ -10433,7 +11677,7 @@
         <v>25954</v>
       </c>
       <c r="Y104" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z104" s="3">
@@ -10446,11 +11690,23 @@
         <v>16065</v>
       </c>
       <c r="AC104" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE104" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF104" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG104" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -10473,7 +11729,7 @@
         <v>62085</v>
       </c>
       <c r="I105" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J105" s="3">
@@ -10486,7 +11742,7 @@
         <v>2846</v>
       </c>
       <c r="M105" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N105" s="3">
@@ -10499,7 +11755,7 @@
         <v>2002</v>
       </c>
       <c r="Q105" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R105" s="3">
@@ -10512,7 +11768,7 @@
         <v>715891</v>
       </c>
       <c r="U105" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V105" s="3">
@@ -10525,7 +11781,7 @@
         <v>17293</v>
       </c>
       <c r="Y105" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z105" s="3">
@@ -10538,11 +11794,23 @@
         <v>11891</v>
       </c>
       <c r="AC105" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE105" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF105" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG105" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -10565,7 +11833,7 @@
         <v>379644</v>
       </c>
       <c r="I106" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J106" s="3">
@@ -10578,7 +11846,7 @@
         <v>9598</v>
       </c>
       <c r="M106" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N106" s="3">
@@ -10591,7 +11859,7 @@
         <v>5571</v>
       </c>
       <c r="Q106" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R106" s="3">
@@ -10604,7 +11872,7 @@
         <v>1616781</v>
       </c>
       <c r="U106" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V106" s="3">
@@ -10617,7 +11885,7 @@
         <v>55382</v>
       </c>
       <c r="Y106" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z106" s="3">
@@ -10630,19 +11898,31 @@
         <v>25925</v>
       </c>
       <c r="AC106" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE106" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF106" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG106" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33">
       <c r="A107" t="s">
         <v>108</v>
       </c>
-      <c r="B107" s="2">
-        <v>9709623</v>
-      </c>
-      <c r="C107" s="2">
-        <v>285183</v>
+      <c r="B107" s="11">
+        <v>9709628</v>
+      </c>
+      <c r="C107" s="11">
+        <v>285188</v>
       </c>
       <c r="D107" s="2">
         <v>170329</v>
@@ -10657,7 +11937,7 @@
         <v>1265728</v>
       </c>
       <c r="I107" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-73289</v>
       </c>
       <c r="J107" s="3">
@@ -10670,7 +11950,7 @@
         <v>41155</v>
       </c>
       <c r="M107" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-2747</v>
       </c>
       <c r="N107" s="3">
@@ -10683,7 +11963,7 @@
         <v>26885</v>
       </c>
       <c r="Q107" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1590</v>
       </c>
       <c r="R107" s="3">
@@ -10696,7 +11976,7 @@
         <v>8443900</v>
       </c>
       <c r="U107" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-358019</v>
       </c>
       <c r="V107" s="3">
@@ -10709,7 +11989,7 @@
         <v>244033</v>
       </c>
       <c r="Y107" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-10204</v>
       </c>
       <c r="Z107" s="3">
@@ -10722,11 +12002,23 @@
         <v>143444</v>
       </c>
       <c r="AC107" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-5809</v>
       </c>
-    </row>
-    <row r="108" spans="1:29">
+      <c r="AE107" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF107" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG107" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -10749,7 +12041,7 @@
         <v>3851310</v>
       </c>
       <c r="I108" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-75529</v>
       </c>
       <c r="J108" s="3">
@@ -10762,7 +12054,7 @@
         <v>134404</v>
       </c>
       <c r="M108" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-2825</v>
       </c>
       <c r="N108" s="3">
@@ -10775,7 +12067,7 @@
         <v>90142</v>
       </c>
       <c r="Q108" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1646</v>
       </c>
       <c r="R108" s="3">
@@ -10788,7 +12080,7 @@
         <v>26226314</v>
       </c>
       <c r="U108" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-384616</v>
       </c>
       <c r="V108" s="3">
@@ -10801,7 +12093,7 @@
         <v>1063673</v>
       </c>
       <c r="Y108" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-10445</v>
       </c>
       <c r="Z108" s="3">
@@ -10814,11 +12106,23 @@
         <v>673649</v>
       </c>
       <c r="AC108" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-6004</v>
       </c>
-    </row>
-    <row r="109" spans="1:29">
+      <c r="AE108" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF108" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG108" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -10841,7 +12145,7 @@
         <v>21418665</v>
       </c>
       <c r="I109" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-75529</v>
       </c>
       <c r="J109" s="3">
@@ -10854,7 +12158,7 @@
         <v>767156</v>
       </c>
       <c r="M109" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-2825</v>
       </c>
       <c r="N109" s="3">
@@ -10867,7 +12171,7 @@
         <v>573486</v>
       </c>
       <c r="Q109" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1646</v>
       </c>
       <c r="R109" s="3">
@@ -10880,7 +12184,7 @@
         <v>138811283</v>
       </c>
       <c r="U109" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-384616</v>
       </c>
       <c r="V109" s="3">
@@ -10893,7 +12197,7 @@
         <v>5976822</v>
       </c>
       <c r="Y109" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-10445</v>
       </c>
       <c r="Z109" s="3">
@@ -10906,11 +12210,23 @@
         <v>3852113</v>
       </c>
       <c r="AC109" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-6004</v>
       </c>
-    </row>
-    <row r="110" spans="1:29">
+      <c r="AE109" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF109" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG109" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -10938,8 +12254,11 @@
       <c r="AA110" s="3"/>
       <c r="AB110" s="3"/>
       <c r="AC110" s="6"/>
-    </row>
-    <row r="111" spans="1:29">
+      <c r="AE110" s="8"/>
+      <c r="AF110" s="8"/>
+      <c r="AG110" s="8"/>
+    </row>
+    <row r="111" spans="1:33">
       <c r="A111" s="1" t="s">
         <v>132</v>
       </c>
@@ -10970,8 +12289,11 @@
       <c r="AA111" s="3"/>
       <c r="AB111" s="3"/>
       <c r="AC111" s="6"/>
-    </row>
-    <row r="112" spans="1:29">
+      <c r="AE111" s="8"/>
+      <c r="AF111" s="8"/>
+      <c r="AG111" s="8"/>
+    </row>
+    <row r="112" spans="1:33">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -10999,8 +12321,11 @@
       <c r="AA112" s="3"/>
       <c r="AB112" s="3"/>
       <c r="AC112" s="6"/>
-    </row>
-    <row r="113" spans="1:29">
+      <c r="AE112" s="8"/>
+      <c r="AF112" s="8"/>
+      <c r="AG112" s="8"/>
+    </row>
+    <row r="113" spans="1:33">
       <c r="A113" t="s">
         <v>133</v>
       </c>
@@ -11031,8 +12356,11 @@
       <c r="AA113" s="3"/>
       <c r="AB113" s="3"/>
       <c r="AC113" s="6"/>
-    </row>
-    <row r="114" spans="1:29">
+      <c r="AE113" s="8"/>
+      <c r="AF113" s="8"/>
+      <c r="AG113" s="8"/>
+    </row>
+    <row r="114" spans="1:33">
       <c r="A114" t="s">
         <v>135</v>
       </c>
@@ -11063,8 +12391,11 @@
       <c r="AA114" s="3"/>
       <c r="AB114" s="3"/>
       <c r="AC114" s="6"/>
-    </row>
-    <row r="115" spans="1:29">
+      <c r="AE114" s="8"/>
+      <c r="AF114" s="8"/>
+      <c r="AG114" s="8"/>
+    </row>
+    <row r="115" spans="1:33">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -11092,8 +12423,11 @@
       <c r="AA115" s="3"/>
       <c r="AB115" s="3"/>
       <c r="AC115" s="6"/>
-    </row>
-    <row r="116" spans="1:29">
+      <c r="AE115" s="8"/>
+      <c r="AF115" s="8"/>
+      <c r="AG115" s="8"/>
+    </row>
+    <row r="116" spans="1:33">
       <c r="A116" t="s">
         <v>134</v>
       </c>
@@ -11124,8 +12458,11 @@
       <c r="AA116" s="3"/>
       <c r="AB116" s="3"/>
       <c r="AC116" s="6"/>
-    </row>
-    <row r="117" spans="1:29">
+      <c r="AE116" s="8"/>
+      <c r="AF116" s="8"/>
+      <c r="AG116" s="8"/>
+    </row>
+    <row r="117" spans="1:33">
       <c r="A117" t="s">
         <v>138</v>
       </c>
@@ -11156,8 +12493,11 @@
       <c r="AA117" s="3"/>
       <c r="AB117" s="3"/>
       <c r="AC117" s="6"/>
-    </row>
-    <row r="118" spans="1:29">
+      <c r="AE117" s="8"/>
+      <c r="AF117" s="8"/>
+      <c r="AG117" s="8"/>
+    </row>
+    <row r="118" spans="1:33">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -11185,8 +12525,11 @@
       <c r="AA118" s="3"/>
       <c r="AB118" s="3"/>
       <c r="AC118" s="6"/>
-    </row>
-    <row r="119" spans="1:29">
+      <c r="AE118" s="8"/>
+      <c r="AF118" s="8"/>
+      <c r="AG118" s="8"/>
+    </row>
+    <row r="119" spans="1:33">
       <c r="A119" t="s">
         <v>136</v>
       </c>
@@ -11217,8 +12560,11 @@
       <c r="AA119" s="3"/>
       <c r="AB119" s="3"/>
       <c r="AC119" s="6"/>
-    </row>
-    <row r="120" spans="1:29">
+      <c r="AE119" s="8"/>
+      <c r="AF119" s="8"/>
+      <c r="AG119" s="8"/>
+    </row>
+    <row r="120" spans="1:33">
       <c r="A120" t="s">
         <v>137</v>
       </c>
@@ -11249,8 +12595,11 @@
       <c r="AA120" s="3"/>
       <c r="AB120" s="3"/>
       <c r="AC120" s="6"/>
-    </row>
-    <row r="121" spans="1:29">
+      <c r="AE120" s="8"/>
+      <c r="AF120" s="8"/>
+      <c r="AG120" s="8"/>
+    </row>
+    <row r="121" spans="1:33">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -11278,8 +12627,11 @@
       <c r="AA121" s="3"/>
       <c r="AB121" s="3"/>
       <c r="AC121" s="6"/>
-    </row>
-    <row r="122" spans="1:29">
+      <c r="AE121" s="8"/>
+      <c r="AF121" s="8"/>
+      <c r="AG121" s="8"/>
+    </row>
+    <row r="122" spans="1:33">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -11307,8 +12659,11 @@
       <c r="AA122" s="3"/>
       <c r="AB122" s="3"/>
       <c r="AC122" s="6"/>
-    </row>
-    <row r="123" spans="1:29">
+      <c r="AE122" s="8"/>
+      <c r="AF122" s="8"/>
+      <c r="AG122" s="8"/>
+    </row>
+    <row r="123" spans="1:33">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -11337,7 +12692,7 @@
       <c r="AB123" s="3"/>
       <c r="AC123" s="6"/>
     </row>
-    <row r="124" spans="1:29">
+    <row r="124" spans="1:33">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -11366,7 +12721,7 @@
       <c r="AB124" s="3"/>
       <c r="AC124" s="6"/>
     </row>
-    <row r="125" spans="1:29">
+    <row r="125" spans="1:33">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -11395,7 +12750,7 @@
       <c r="AB125" s="3"/>
       <c r="AC125" s="6"/>
     </row>
-    <row r="126" spans="1:29">
+    <row r="126" spans="1:33">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -11424,7 +12779,7 @@
       <c r="AB126" s="3"/>
       <c r="AC126" s="6"/>
     </row>
-    <row r="127" spans="1:29">
+    <row r="127" spans="1:33">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -11453,7 +12808,7 @@
       <c r="AB127" s="3"/>
       <c r="AC127" s="6"/>
     </row>
-    <row r="128" spans="1:29">
+    <row r="128" spans="1:33">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
